--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Liph-Lpar2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Liph-Lpar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
     <t>Liph</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,13 +522,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,40 +543,40 @@
         <v>0.05799</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.4389003333333333</v>
+        <v>0.1300026666666667</v>
       </c>
       <c r="N2">
-        <v>1.316701</v>
+        <v>0.390008</v>
       </c>
       <c r="O2">
-        <v>0.1827545716367674</v>
+        <v>0.0506135009133603</v>
       </c>
       <c r="P2">
-        <v>0.1827545716367674</v>
+        <v>0.05061350091336029</v>
       </c>
       <c r="Q2">
-        <v>0.008483943443333333</v>
+        <v>0.002512951546666667</v>
       </c>
       <c r="R2">
-        <v>0.07635549099</v>
+        <v>0.02261656392</v>
       </c>
       <c r="S2">
-        <v>0.1827545716367674</v>
+        <v>0.01636416658098664</v>
       </c>
       <c r="T2">
-        <v>0.1827545716367674</v>
+        <v>0.01636416658098664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,10 +584,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,10 +605,10 @@
         <v>0.05799</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,10 +623,10 @@
         <v>2.121212</v>
       </c>
       <c r="O3">
-        <v>0.2944185433221139</v>
+        <v>0.2752814442253256</v>
       </c>
       <c r="P3">
-        <v>0.2944185433221139</v>
+        <v>0.2752814442253256</v>
       </c>
       <c r="Q3">
         <v>0.01366767598666667</v>
@@ -635,10 +635,10 @@
         <v>0.12300908388</v>
       </c>
       <c r="S3">
-        <v>0.2944185433221139</v>
+        <v>0.08900296025104056</v>
       </c>
       <c r="T3">
-        <v>0.2944185433221139</v>
+        <v>0.08900296025104056</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,13 +646,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,40 +667,40 @@
         <v>0.05799</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.09228399999999999</v>
+        <v>0.569763</v>
       </c>
       <c r="N4">
-        <v>0.276852</v>
+        <v>1.709289</v>
       </c>
       <c r="O4">
-        <v>0.03842631597210174</v>
+        <v>0.2218239122343559</v>
       </c>
       <c r="P4">
-        <v>0.03842631597210173</v>
+        <v>0.2218239122343559</v>
       </c>
       <c r="Q4">
-        <v>0.00178384972</v>
+        <v>0.01101351879</v>
       </c>
       <c r="R4">
-        <v>0.01605464748</v>
+        <v>0.09912166911</v>
       </c>
       <c r="S4">
-        <v>0.03842631597210174</v>
+        <v>0.07171927224838481</v>
       </c>
       <c r="T4">
-        <v>0.03842631597210173</v>
+        <v>0.07171927224838481</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,13 +708,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,40 +729,536 @@
         <v>0.05799</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.3233162355040143</v>
       </c>
       <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1.161701</v>
+      </c>
+      <c r="N5">
+        <v>3.485103</v>
+      </c>
+      <c r="O5">
+        <v>0.4522811426269581</v>
+      </c>
+      <c r="P5">
+        <v>0.4522811426269581</v>
+      </c>
+      <c r="Q5">
+        <v>0.02245568033</v>
+      </c>
+      <c r="R5">
+        <v>0.20210112297</v>
+      </c>
+      <c r="S5">
+        <v>0.1462298364236023</v>
+      </c>
+      <c r="T5">
+        <v>0.1462298364236023</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G6">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H6">
+        <v>0.042196</v>
+      </c>
+      <c r="I6">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J6">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M6">
+        <v>0.1300026666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.390008</v>
+      </c>
+      <c r="O6">
+        <v>0.0506135009133603</v>
+      </c>
+      <c r="P6">
+        <v>0.05061350091336029</v>
+      </c>
+      <c r="Q6">
+        <v>0.001828530840888889</v>
+      </c>
+      <c r="R6">
+        <v>0.016456777568</v>
+      </c>
+      <c r="S6">
+        <v>0.01190726630542011</v>
+      </c>
+      <c r="T6">
+        <v>0.01190726630542011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H7">
+        <v>0.042196</v>
+      </c>
+      <c r="I7">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J7">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K7">
         <v>2</v>
       </c>
-      <c r="L5">
+      <c r="L7">
         <v>0.6666666666666666</v>
       </c>
-      <c r="M5">
-        <v>1.163328333333333</v>
-      </c>
-      <c r="N5">
-        <v>3.489985</v>
-      </c>
-      <c r="O5">
-        <v>0.484400569069017</v>
-      </c>
-      <c r="P5">
-        <v>0.484400569069017</v>
-      </c>
-      <c r="Q5">
-        <v>0.02248713668333333</v>
-      </c>
-      <c r="R5">
-        <v>0.20238423015</v>
-      </c>
-      <c r="S5">
-        <v>0.484400569069017</v>
-      </c>
-      <c r="T5">
-        <v>0.484400569069017</v>
+      <c r="M7">
+        <v>0.7070706666666666</v>
+      </c>
+      <c r="N7">
+        <v>2.121212</v>
+      </c>
+      <c r="O7">
+        <v>0.2752814442253256</v>
+      </c>
+      <c r="P7">
+        <v>0.2752814442253256</v>
+      </c>
+      <c r="Q7">
+        <v>0.009945184616888888</v>
+      </c>
+      <c r="R7">
+        <v>0.08950666155199999</v>
+      </c>
+      <c r="S7">
+        <v>0.0647623540395397</v>
+      </c>
+      <c r="T7">
+        <v>0.0647623540395397</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H8">
+        <v>0.042196</v>
+      </c>
+      <c r="I8">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J8">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.569763</v>
+      </c>
+      <c r="N8">
+        <v>1.709289</v>
+      </c>
+      <c r="O8">
+        <v>0.2218239122343559</v>
+      </c>
+      <c r="P8">
+        <v>0.2218239122343559</v>
+      </c>
+      <c r="Q8">
+        <v>0.008013906515999999</v>
+      </c>
+      <c r="R8">
+        <v>0.072125158644</v>
+      </c>
+      <c r="S8">
+        <v>0.05218600468689163</v>
+      </c>
+      <c r="T8">
+        <v>0.05218600468689163</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.01406533333333333</v>
+      </c>
+      <c r="H9">
+        <v>0.042196</v>
+      </c>
+      <c r="I9">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="J9">
+        <v>0.2352586975914362</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1.161701</v>
+      </c>
+      <c r="N9">
+        <v>3.485103</v>
+      </c>
+      <c r="O9">
+        <v>0.4522811426269581</v>
+      </c>
+      <c r="P9">
+        <v>0.4522811426269581</v>
+      </c>
+      <c r="Q9">
+        <v>0.01633971179866667</v>
+      </c>
+      <c r="R9">
+        <v>0.147057406188</v>
+      </c>
+      <c r="S9">
+        <v>0.1064030725595848</v>
+      </c>
+      <c r="T9">
+        <v>0.1064030725595848</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H10">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J10">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M10">
+        <v>0.1300026666666667</v>
+      </c>
+      <c r="N10">
+        <v>0.390008</v>
+      </c>
+      <c r="O10">
+        <v>0.0506135009133603</v>
+      </c>
+      <c r="P10">
+        <v>0.05061350091336029</v>
+      </c>
+      <c r="Q10">
+        <v>0.003430943710222223</v>
+      </c>
+      <c r="R10">
+        <v>0.030878493392</v>
+      </c>
+      <c r="S10">
+        <v>0.02234206802695354</v>
+      </c>
+      <c r="T10">
+        <v>0.02234206802695354</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H11">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I11">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J11">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.7070706666666666</v>
+      </c>
+      <c r="N11">
+        <v>2.121212</v>
+      </c>
+      <c r="O11">
+        <v>0.2752814442253256</v>
+      </c>
+      <c r="P11">
+        <v>0.2752814442253256</v>
+      </c>
+      <c r="Q11">
+        <v>0.01866053765422222</v>
+      </c>
+      <c r="R11">
+        <v>0.167944838888</v>
+      </c>
+      <c r="S11">
+        <v>0.1215161299347454</v>
+      </c>
+      <c r="T11">
+        <v>0.1215161299347454</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J12">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.569763</v>
+      </c>
+      <c r="N12">
+        <v>1.709289</v>
+      </c>
+      <c r="O12">
+        <v>0.2218239122343559</v>
+      </c>
+      <c r="P12">
+        <v>0.2218239122343559</v>
+      </c>
+      <c r="Q12">
+        <v>0.015036805254</v>
+      </c>
+      <c r="R12">
+        <v>0.135331247286</v>
+      </c>
+      <c r="S12">
+        <v>0.09791863529907947</v>
+      </c>
+      <c r="T12">
+        <v>0.09791863529907949</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02639133333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.07917399999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="J13">
+        <v>0.4414250669045495</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.161701</v>
+      </c>
+      <c r="N13">
+        <v>3.485103</v>
+      </c>
+      <c r="O13">
+        <v>0.4522811426269581</v>
+      </c>
+      <c r="P13">
+        <v>0.4522811426269581</v>
+      </c>
+      <c r="Q13">
+        <v>0.03065883832466667</v>
+      </c>
+      <c r="R13">
+        <v>0.275929544922</v>
+      </c>
+      <c r="S13">
+        <v>0.1996482336437711</v>
+      </c>
+      <c r="T13">
+        <v>0.1996482336437711</v>
       </c>
     </row>
   </sheetData>
